--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -517,6 +517,11 @@
       <c r="G2" s="2" t="n">
         <v>40.39</v>
       </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="1">
       <c r="A3" s="2" t="n">
@@ -541,6 +546,11 @@
       </c>
       <c r="G3" s="2" t="n">
         <v>53.02</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
       </c>
     </row>
   </sheetData>
